--- a/data/trans_orig/P15-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>34167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24621</v>
+        <v>24153</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47120</v>
+        <v>46685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07211683816317424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05196800493908087</v>
+        <v>0.05097936815125308</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0994567387910063</v>
+        <v>0.09853800376303941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>15937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9131</v>
+        <v>9226</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25763</v>
+        <v>25137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05196720972725593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02977310951163187</v>
+        <v>0.03008429735626248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08400539092002393</v>
+        <v>0.08196352190289197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -786,19 +786,19 @@
         <v>50105</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37977</v>
+        <v>36940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65753</v>
+        <v>66140</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06419904486664814</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04866050581959126</v>
+        <v>0.04733149469752972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08424921834315981</v>
+        <v>0.08474548497129913</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>439609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426656</v>
+        <v>427091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449155</v>
+        <v>449623</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9278831618368257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9005432612089936</v>
+        <v>0.9014619962369605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9480319950609192</v>
+        <v>0.9490206318487469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>283</v>
@@ -836,19 +836,19 @@
         <v>290743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280917</v>
+        <v>281543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297549</v>
+        <v>297454</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9480327902727441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9159946090799761</v>
+        <v>0.918036478097108</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9702268904883682</v>
+        <v>0.9699157026437375</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>705</v>
@@ -857,19 +857,19 @@
         <v>730352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>714704</v>
+        <v>714317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742480</v>
+        <v>743517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9358009551333518</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9157507816568402</v>
+        <v>0.9152545150287003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9513394941804089</v>
+        <v>0.9526685053024702</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>25816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16989</v>
+        <v>16435</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37665</v>
+        <v>37854</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07035623326665191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04629946873854392</v>
+        <v>0.04478877456371044</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1026465808292496</v>
+        <v>0.1031634819029874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>11688</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5933</v>
+        <v>5819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19839</v>
+        <v>19953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03143196827556331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01595539901883722</v>
+        <v>0.0156482028229506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05335033632047215</v>
+        <v>0.05365572903504338</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1003,19 +1003,19 @@
         <v>37505</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26555</v>
+        <v>26339</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52321</v>
+        <v>51222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05076421099663449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03594281245685497</v>
+        <v>0.03565086243171993</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07081862116103621</v>
+        <v>0.06933078455128473</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>341118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329269</v>
+        <v>329080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349945</v>
+        <v>350499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.929643766733348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8973534191707504</v>
+        <v>0.8968365180970127</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.953700531261456</v>
+        <v>0.9552112254362896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -1053,19 +1053,19 @@
         <v>360177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>352026</v>
+        <v>351912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365932</v>
+        <v>366046</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9685680317244367</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.946649663679528</v>
+        <v>0.9463442709649565</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9840446009811629</v>
+        <v>0.9843517971770491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -1074,19 +1074,19 @@
         <v>701294</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686478</v>
+        <v>687577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712244</v>
+        <v>712460</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9492357890033655</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9291813788389639</v>
+        <v>0.9306692154487155</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9640571875431451</v>
+        <v>0.9643491375682803</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>47604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34824</v>
+        <v>34998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61148</v>
+        <v>60737</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08776777572463682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06420429713206628</v>
+        <v>0.06452619959971252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1127379485050815</v>
+        <v>0.1119799681534296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>4957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1878</v>
+        <v>1921</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11943</v>
+        <v>11297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02954620316374397</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01119359311399319</v>
+        <v>0.01144821600232491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07118084451674447</v>
+        <v>0.06733203955587584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1220,19 +1220,19 @@
         <v>52562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39811</v>
+        <v>40441</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68829</v>
+        <v>67958</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07401260058836064</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05605889696704976</v>
+        <v>0.05694607196903315</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09691822217129263</v>
+        <v>0.09569276792419662</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>494785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>481241</v>
+        <v>481652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507565</v>
+        <v>507391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9122322242753632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8872620514949185</v>
+        <v>0.8880200318465704</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9357957028679338</v>
+        <v>0.9354738004002875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>159</v>
@@ -1270,19 +1270,19 @@
         <v>162825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155839</v>
+        <v>156485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165904</v>
+        <v>165861</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.970453796836256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9288191554832548</v>
+        <v>0.9326679604441245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888064068860069</v>
+        <v>0.9885517839976751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>644</v>
@@ -1291,19 +1291,19 @@
         <v>657609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641342</v>
+        <v>642213</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670360</v>
+        <v>669730</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9259873994116393</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9030817778287075</v>
+        <v>0.9043072320758039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9439411030329503</v>
+        <v>0.9430539280309669</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>84425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67374</v>
+        <v>68077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102454</v>
+        <v>103140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06817611733838573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05440720636427741</v>
+        <v>0.0549744665999559</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08273511955411081</v>
+        <v>0.08328921228241853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1416,19 +1416,19 @@
         <v>43408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31496</v>
+        <v>31504</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57122</v>
+        <v>57242</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06077166149912601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04409513070436719</v>
+        <v>0.04410634379834318</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07997108368936881</v>
+        <v>0.08013952603642212</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -1437,19 +1437,19 @@
         <v>127833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106547</v>
+        <v>106254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151688</v>
+        <v>153588</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06546750280322823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05456595498283812</v>
+        <v>0.05441587689557117</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07768456478745248</v>
+        <v>0.07865741611582096</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1153909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135880</v>
+        <v>1135194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1170960</v>
+        <v>1170257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9318238826616143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9172648804458892</v>
+        <v>0.9167107877175815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9455927936357228</v>
+        <v>0.9450255334000441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>652</v>
@@ -1487,19 +1487,19 @@
         <v>670877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>657163</v>
+        <v>657043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>682789</v>
+        <v>682781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9392283385008739</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9200289163106314</v>
+        <v>0.9198604739635778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9559048692956329</v>
+        <v>0.9558936562016568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1795</v>
@@ -1508,19 +1508,19 @@
         <v>1824787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1800932</v>
+        <v>1799032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1846073</v>
+        <v>1846366</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9345324971967718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9223154352125476</v>
+        <v>0.9213425838841788</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9454340450171619</v>
+        <v>0.9455841231044289</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>20672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12880</v>
+        <v>12478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30325</v>
+        <v>30670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0589685123506203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03674211451220177</v>
+        <v>0.03559505644556014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08650437013311764</v>
+        <v>0.08748866095132071</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1633,19 +1633,19 @@
         <v>36529</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26432</v>
+        <v>25241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50270</v>
+        <v>48040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06422674417951152</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0464734114491598</v>
+        <v>0.04438034792704756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08838689947943555</v>
+        <v>0.08446570067652072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -1654,19 +1654,19 @@
         <v>57201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43537</v>
+        <v>43358</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75012</v>
+        <v>73185</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06222164614897546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04735847018734979</v>
+        <v>0.04716346269048034</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08159640894759802</v>
+        <v>0.07960913160935801</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>329883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>320230</v>
+        <v>319885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>337675</v>
+        <v>338077</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9410314876493797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9134956298668823</v>
+        <v>0.9125113390486792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9632578854877982</v>
+        <v>0.96440494355444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>504</v>
@@ -1704,19 +1704,19 @@
         <v>532223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>518482</v>
+        <v>520712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>542320</v>
+        <v>543511</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9357732558204885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9116131005205642</v>
+        <v>0.9155342993234793</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9535265885508396</v>
+        <v>0.9556196520729524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>823</v>
@@ -1725,19 +1725,19 @@
         <v>862106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>844295</v>
+        <v>846122</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875770</v>
+        <v>875949</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9377783538510246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9184035910524018</v>
+        <v>0.920390868390642</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.95264152981265</v>
+        <v>0.9528365373095196</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>29315</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20267</v>
+        <v>20709</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40751</v>
+        <v>41635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09830616865431063</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06796586312314563</v>
+        <v>0.06944658056259156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1366571412950237</v>
+        <v>0.1396214815971296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -1850,19 +1850,19 @@
         <v>62870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49021</v>
+        <v>49350</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79235</v>
+        <v>81263</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05034609819714181</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03925570651822637</v>
+        <v>0.03951919517778625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06345110733151996</v>
+        <v>0.06507456270978899</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -1871,19 +1871,19 @@
         <v>92185</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75131</v>
+        <v>74875</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112637</v>
+        <v>113118</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05959114386705586</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04856686431383567</v>
+        <v>0.04840132888145807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0728115455281894</v>
+        <v>0.07312259588450284</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>268886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257450</v>
+        <v>256566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277934</v>
+        <v>277492</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9016938313456894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8633428587049757</v>
+        <v>0.8603785184028704</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9320341368768542</v>
+        <v>0.9305534194374083</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1177</v>
@@ -1921,19 +1921,19 @@
         <v>1185890</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1169525</v>
+        <v>1167497</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1199739</v>
+        <v>1199410</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9496539018028582</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9365488926684802</v>
+        <v>0.934925437290211</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9607442934817737</v>
+        <v>0.9604808048222139</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1453</v>
@@ -1942,19 +1942,19 @@
         <v>1454775</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1434323</v>
+        <v>1433842</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1471829</v>
+        <v>1472085</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9404088561329441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9271884544718106</v>
+        <v>0.9268774041154969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9514331356861643</v>
+        <v>0.9515986711185419</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>241999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>213385</v>
+        <v>210809</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>273735</v>
+        <v>271008</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0740015616164222</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06525161203185738</v>
+        <v>0.06446370680428934</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08370626266138491</v>
+        <v>0.08287229258645867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -2067,19 +2067,19 @@
         <v>175391</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151720</v>
+        <v>152648</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203942</v>
+        <v>201694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05191954057205887</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04491257371361561</v>
+        <v>0.04518719923569275</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06037131604348341</v>
+        <v>0.05970586207147234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>405</v>
@@ -2088,19 +2088,19 @@
         <v>417390</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>378908</v>
+        <v>380432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>460528</v>
+        <v>459947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06278130254074424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05699309036924707</v>
+        <v>0.05722227463813543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06926987850899172</v>
+        <v>0.06918248771191547</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3028191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2996455</v>
+        <v>2999182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3056805</v>
+        <v>3059381</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9259984383835778</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.916293737338615</v>
+        <v>0.9171277074135413</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9347483879681424</v>
+        <v>0.9355362931957106</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3127</v>
@@ -2138,19 +2138,19 @@
         <v>3202733</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3174182</v>
+        <v>3176430</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3226404</v>
+        <v>3225476</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9480804594279412</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9396286839565176</v>
+        <v>0.9402941379285277</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9550874262863847</v>
+        <v>0.9548128007643074</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6098</v>
@@ -2159,19 +2159,19 @@
         <v>6230924</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6187786</v>
+        <v>6188367</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6269406</v>
+        <v>6267882</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9372186974592558</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9307301214910083</v>
+        <v>0.9308175122880845</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.943006909630753</v>
+        <v>0.9427777253618645</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>33962</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22008</v>
+        <v>22339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47843</v>
+        <v>47523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07767880594111752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05033702909332163</v>
+        <v>0.0510954152567037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1094270094314832</v>
+        <v>0.1086953787648371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2526,19 +2526,19 @@
         <v>17329</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9623</v>
+        <v>10023</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27647</v>
+        <v>29127</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05510954557704206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0306036176807932</v>
+        <v>0.03187534031862278</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08792061887909575</v>
+        <v>0.09262606256237735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2547,19 +2547,19 @@
         <v>51291</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37140</v>
+        <v>37740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68624</v>
+        <v>68674</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06823710036947786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04941002782371322</v>
+        <v>0.05020850685636201</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09129592490991513</v>
+        <v>0.09136294498730155</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>403249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389368</v>
+        <v>389688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415203</v>
+        <v>414872</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9223211940588825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8905729905685165</v>
+        <v>0.8913046212351629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9496629709066784</v>
+        <v>0.9489045847432963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -2597,19 +2597,19 @@
         <v>297125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286807</v>
+        <v>285327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304831</v>
+        <v>304431</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9448904544229579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9120793811209044</v>
+        <v>0.9073739374376237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9693963823192069</v>
+        <v>0.9681246596813773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>644</v>
@@ -2618,19 +2618,19 @@
         <v>700374</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>683041</v>
+        <v>682991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714525</v>
+        <v>713925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9317628996305222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9087040750900849</v>
+        <v>0.9086370550126982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9505899721762867</v>
+        <v>0.949791493143638</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>32446</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22587</v>
+        <v>23412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45423</v>
+        <v>45733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0774748420320896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05393211861047428</v>
+        <v>0.05590201081391582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1084603181943438</v>
+        <v>0.1092000906199611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2743,19 +2743,19 @@
         <v>26855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18171</v>
+        <v>17959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38382</v>
+        <v>39428</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07945096231685375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05375729857789494</v>
+        <v>0.05313272907892934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1135533931470818</v>
+        <v>0.1166470346067719</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -2764,19 +2764,19 @@
         <v>59302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44400</v>
+        <v>45410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75362</v>
+        <v>76461</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07835743119421303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05866730601643209</v>
+        <v>0.06000159509235169</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09957821487576959</v>
+        <v>0.1010302709773485</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>386351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373374</v>
+        <v>373064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>396210</v>
+        <v>395385</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9225251579679105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8915396818056567</v>
+        <v>0.8907999093800388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9460678813895257</v>
+        <v>0.9440979891860839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -2814,19 +2814,19 @@
         <v>311156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>299629</v>
+        <v>298583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>319840</v>
+        <v>320052</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9205490376831462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8864466068529183</v>
+        <v>0.8833529653932282</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9462427014221051</v>
+        <v>0.9468672709210707</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>624</v>
@@ -2835,19 +2835,19 @@
         <v>697506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>681446</v>
+        <v>680347</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712408</v>
+        <v>711398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.921642568805787</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9004217851242303</v>
+        <v>0.8989697290226514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9413326939835677</v>
+        <v>0.9399984049076483</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>59797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45890</v>
+        <v>45065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76372</v>
+        <v>77905</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09500381333052478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07290966825476132</v>
+        <v>0.07159844972874453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1213381762370558</v>
+        <v>0.1237739780424029</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2960,19 +2960,19 @@
         <v>16057</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9201</v>
+        <v>9083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25338</v>
+        <v>25392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0617286264309127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03536980882020982</v>
+        <v>0.03491698176785592</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09740524574688579</v>
+        <v>0.09761248512062147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -2981,19 +2981,19 @@
         <v>75854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58508</v>
+        <v>59043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93445</v>
+        <v>94909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08527315023647081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06577336395044987</v>
+        <v>0.06637493814611777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1050485803510996</v>
+        <v>0.106694120510847</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>569618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>553043</v>
+        <v>551510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>583525</v>
+        <v>584350</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9049961866694752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8786618237629443</v>
+        <v>0.876226021957597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9270903317452388</v>
+        <v>0.9284015502712553</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -3031,19 +3031,19 @@
         <v>244072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234791</v>
+        <v>234737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250928</v>
+        <v>251046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9382713735690873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9025947542531141</v>
+        <v>0.9023875148793785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9646301911797902</v>
+        <v>0.9650830182321442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>766</v>
@@ -3052,19 +3052,19 @@
         <v>813690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>796099</v>
+        <v>794635</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>831036</v>
+        <v>830501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9147268497635291</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8949514196489006</v>
+        <v>0.8933058794891532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9342266360495504</v>
+        <v>0.9336250618538823</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>95620</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79988</v>
+        <v>78262</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116084</v>
+        <v>115577</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08250112222386632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06901389986113601</v>
+        <v>0.06752491597896691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1001575701235163</v>
+        <v>0.09972083897282596</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3177,19 +3177,19 @@
         <v>48679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36098</v>
+        <v>36392</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63809</v>
+        <v>62955</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06349549208266121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.047084963290334</v>
+        <v>0.04746811825445783</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0832306024552024</v>
+        <v>0.08211591703172497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -3198,19 +3198,19 @@
         <v>144299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121918</v>
+        <v>122843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169004</v>
+        <v>171121</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07493449199904846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06331199865350845</v>
+        <v>0.06379242217061477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08776377734986562</v>
+        <v>0.08886345330670471</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1063389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1042925</v>
+        <v>1043432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1079021</v>
+        <v>1080747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9174988777761337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8998424298764838</v>
+        <v>0.9002791610271742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.930986100138864</v>
+        <v>0.9324750840210331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>664</v>
@@ -3248,19 +3248,19 @@
         <v>717978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>702848</v>
+        <v>703702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>730559</v>
+        <v>730265</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9365045079173387</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9167693975447975</v>
+        <v>0.917884082968275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.952915036709666</v>
+        <v>0.9525318817455422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1651</v>
@@ -3269,19 +3269,19 @@
         <v>1781368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1756663</v>
+        <v>1754546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1803749</v>
+        <v>1802824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9250655080009516</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9122362226501343</v>
+        <v>0.9111365466932951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9366880013464915</v>
+        <v>0.9362075778293851</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>39263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28120</v>
+        <v>27899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52057</v>
+        <v>53477</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07689639525763774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0550726155579877</v>
+        <v>0.05464058568359696</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1019524809523638</v>
+        <v>0.1047349946671429</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -3394,19 +3394,19 @@
         <v>58226</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45435</v>
+        <v>44945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76266</v>
+        <v>73925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07646018770832649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05966294891457479</v>
+        <v>0.05902058643945923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1001500833007986</v>
+        <v>0.09707595233021095</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -3415,19 +3415,19 @@
         <v>97489</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79880</v>
+        <v>79756</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117329</v>
+        <v>116718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07663527048801894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06279302898796023</v>
+        <v>0.06269558963134926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0922310475044085</v>
+        <v>0.09175071734408348</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>471333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>458539</v>
+        <v>457119</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>482476</v>
+        <v>482697</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9231036047423623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8980475190476358</v>
+        <v>0.895265005332857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9449273844420123</v>
+        <v>0.9453594143164029</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>648</v>
@@ -3465,19 +3465,19 @@
         <v>703296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>685256</v>
+        <v>687597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>716087</v>
+        <v>716577</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9235398122916735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8998499166992014</v>
+        <v>0.9029240476697891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9403370510854252</v>
+        <v>0.9409794135605407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1098</v>
@@ -3486,19 +3486,19 @@
         <v>1174629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1154789</v>
+        <v>1155400</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1192238</v>
+        <v>1192362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.923364729511981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9077689524955922</v>
+        <v>0.9082492826559165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9372069710120411</v>
+        <v>0.9373044103686508</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>26825</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17662</v>
+        <v>17679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37813</v>
+        <v>37110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.100514127702327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06617936766815982</v>
+        <v>0.06624363602467301</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.141683047866412</v>
+        <v>0.1390486158065706</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -3611,19 +3611,19 @@
         <v>90325</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71119</v>
+        <v>72171</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>110433</v>
+        <v>108742</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08142121231600792</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0641090150049502</v>
+        <v>0.06505719444642365</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09954725626766951</v>
+        <v>0.09802299915972329</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>114</v>
@@ -3632,19 +3632,19 @@
         <v>117150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96657</v>
+        <v>96701</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140337</v>
+        <v>137883</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08512374914052361</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07023274721377598</v>
+        <v>0.07026502211228146</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1019716986336903</v>
+        <v>0.1001889564552469</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>240057</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229069</v>
+        <v>229772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249220</v>
+        <v>249203</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.899485872297673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8583169521335882</v>
+        <v>0.8609513841934293</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9338206323318404</v>
+        <v>0.933756363975327</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>958</v>
@@ -3682,19 +3682,19 @@
         <v>1019026</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>998918</v>
+        <v>1000609</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1038232</v>
+        <v>1037180</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.918578787683992</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9004527437323303</v>
+        <v>0.9019770008402767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9358909849950495</v>
+        <v>0.9349428055535762</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1195</v>
@@ -3703,19 +3703,19 @@
         <v>1259083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1235896</v>
+        <v>1238350</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1279576</v>
+        <v>1279532</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9148762508594764</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8980283013663095</v>
+        <v>0.8998110435447528</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9297672527862239</v>
+        <v>0.9297349778877184</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>287913</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255225</v>
+        <v>257682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>324200</v>
+        <v>321822</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08413810707870635</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07458556419845189</v>
+        <v>0.0753035354462074</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09474226466730239</v>
+        <v>0.09404761914950689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>241</v>
@@ -3828,19 +3828,19 @@
         <v>257472</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227930</v>
+        <v>228927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>289771</v>
+        <v>290061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07252484573469743</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06420331300292269</v>
+        <v>0.06448408849150054</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0816228464542233</v>
+        <v>0.08170455443810326</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>517</v>
@@ -3849,19 +3849,19 @@
         <v>545385</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>498155</v>
+        <v>504999</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>592724</v>
+        <v>590984</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07822469282309372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07145044056825378</v>
+        <v>0.07243205371048748</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0850145422790991</v>
+        <v>0.08476497068286257</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3133997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3097710</v>
+        <v>3100088</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3166685</v>
+        <v>3164228</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9158618929212936</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9052577353326976</v>
+        <v>0.9059523808504931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9254144358015481</v>
+        <v>0.9246964645537926</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3049</v>
@@ -3899,19 +3899,19 @@
         <v>3292653</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3260354</v>
+        <v>3260064</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3322195</v>
+        <v>3321198</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9274751542653026</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9183771535457766</v>
+        <v>0.9182954455618967</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9357966869970773</v>
+        <v>0.9355159115084994</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5978</v>
@@ -3920,19 +3920,19 @@
         <v>6426650</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6379311</v>
+        <v>6381051</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6473880</v>
+        <v>6467036</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9217753071769063</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9149854577209011</v>
+        <v>0.9152350293171373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9285495594317463</v>
+        <v>0.9275679462895122</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>21536</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13935</v>
+        <v>13338</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32508</v>
+        <v>32932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05018871082280588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03247584467311384</v>
+        <v>0.03108452339093863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07575890134823741</v>
+        <v>0.07674741312099603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4287,19 +4287,19 @@
         <v>20070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12537</v>
+        <v>12196</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30043</v>
+        <v>31697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05783085040678863</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03612314260049545</v>
+        <v>0.03514245886334909</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08656474510956005</v>
+        <v>0.09133147559934118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -4308,19 +4308,19 @@
         <v>41606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30535</v>
+        <v>30057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56429</v>
+        <v>55446</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05360590153892318</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03934179598323746</v>
+        <v>0.03872639789789967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07270400816133009</v>
+        <v>0.07143738121832452</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>407556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>396584</v>
+        <v>396160</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415157</v>
+        <v>415754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9498112891771942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9242410986517626</v>
+        <v>0.9232525868790041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9675241553268863</v>
+        <v>0.9689154766090613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>313</v>
@@ -4358,19 +4358,19 @@
         <v>326985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317012</v>
+        <v>315358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>334518</v>
+        <v>334859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9421691495932114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9134352548904399</v>
+        <v>0.9086685244006597</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9638768573995045</v>
+        <v>0.9648575411366513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>689</v>
@@ -4379,19 +4379,19 @@
         <v>734541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>719718</v>
+        <v>720701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745612</v>
+        <v>746090</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9463940984610768</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9272959918386697</v>
+        <v>0.9285626187816755</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9606582040167625</v>
+        <v>0.9612736021021001</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>16860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10582</v>
+        <v>9846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26654</v>
+        <v>25800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04469397084522907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02805150501879437</v>
+        <v>0.02610143691574786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07065796459262647</v>
+        <v>0.06839366302422378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -4504,19 +4504,19 @@
         <v>22086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13732</v>
+        <v>13819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34329</v>
+        <v>33678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0593279210024854</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03688644056339515</v>
+        <v>0.03712153193605736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09221580494213187</v>
+        <v>0.09046616289510433</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -4525,19 +4525,19 @@
         <v>38946</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27467</v>
+        <v>28275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53820</v>
+        <v>54464</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05196258530872225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03664756912126294</v>
+        <v>0.03772475842437712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07180775912625902</v>
+        <v>0.0726667744553995</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>360367</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350573</v>
+        <v>351427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366645</v>
+        <v>367381</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9553060291547709</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9293420354073734</v>
+        <v>0.931606336975776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9719484949812055</v>
+        <v>0.973898563084252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -4575,19 +4575,19 @@
         <v>350187</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>337944</v>
+        <v>338595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358541</v>
+        <v>358454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9406720789975146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9077841950578683</v>
+        <v>0.9095338371048957</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9631135594366048</v>
+        <v>0.9628784680639427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>670</v>
@@ -4596,19 +4596,19 @@
         <v>710554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>695680</v>
+        <v>695036</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>722033</v>
+        <v>721225</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9480374146912778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9281922408737411</v>
+        <v>0.9273332255446005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.963352430878737</v>
+        <v>0.9622752415756229</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>31067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22128</v>
+        <v>22015</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44548</v>
+        <v>43637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05952558228393245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.042398017472911</v>
+        <v>0.04218106009866247</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08535459707226593</v>
+        <v>0.08360919763931271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4721,19 +4721,19 @@
         <v>9985</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5257</v>
+        <v>4528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18446</v>
+        <v>17663</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06010882195281572</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03164764560279011</v>
+        <v>0.02725407273364078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1110352311044348</v>
+        <v>0.1063230927510046</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -4742,19 +4742,19 @@
         <v>41053</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29735</v>
+        <v>30288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55170</v>
+        <v>56330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05966640244390756</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04321793500807096</v>
+        <v>0.04402122025856321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08018544205099903</v>
+        <v>0.08187019146514277</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>490847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>477366</v>
+        <v>478277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499786</v>
+        <v>499899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9404744177160675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9146454029277342</v>
+        <v>0.9163908023606875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9576019825270889</v>
+        <v>0.9578189399013376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -4792,19 +4792,19 @@
         <v>156138</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147677</v>
+        <v>148460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160866</v>
+        <v>161595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9398911780471843</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8889647688955649</v>
+        <v>0.8936769072489955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683523543972099</v>
+        <v>0.9727459272663593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -4813,19 +4813,19 @@
         <v>646983</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>632866</v>
+        <v>631706</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658301</v>
+        <v>657748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9403335975560925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9198145579490009</v>
+        <v>0.9181298085348569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9567820649919291</v>
+        <v>0.9559787797414365</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>58992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46500</v>
+        <v>46152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75979</v>
+        <v>75674</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05131389503277724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04044720275710424</v>
+        <v>0.04014494042548333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06608970642938497</v>
+        <v>0.06582457547986122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4938,19 +4938,19 @@
         <v>38465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27068</v>
+        <v>27697</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53382</v>
+        <v>52866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04657484906620583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03277492580468644</v>
+        <v>0.03353703824008492</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06463663917658381</v>
+        <v>0.06401214970347267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -4959,19 +4959,19 @@
         <v>97457</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80436</v>
+        <v>79577</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118637</v>
+        <v>118175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04933270775628255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04071657590782948</v>
+        <v>0.04028188627851509</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0600537412606578</v>
+        <v>0.0598197641167341</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1090646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1073659</v>
+        <v>1073964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1103138</v>
+        <v>1103486</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9486861049672227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9339102935706148</v>
+        <v>0.934175424520139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9595527972428957</v>
+        <v>0.9598550595745167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>762</v>
@@ -5009,19 +5009,19 @@
         <v>787411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>772494</v>
+        <v>773010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>798808</v>
+        <v>798179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9534251509337942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9353633608234161</v>
+        <v>0.9359878502965273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9672250741953135</v>
+        <v>0.9664629617599149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1807</v>
@@ -5030,19 +5030,19 @@
         <v>1878057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1856877</v>
+        <v>1857339</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1895078</v>
+        <v>1895937</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9506672922437175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9399462587393421</v>
+        <v>0.9401802358832657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9592834240921702</v>
+        <v>0.9597181137214849</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>41583</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30373</v>
+        <v>30378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56128</v>
+        <v>54171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06699336362253154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04893278096993233</v>
+        <v>0.04894152940365862</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09042643830312105</v>
+        <v>0.08727257123413631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -5155,19 +5155,19 @@
         <v>40411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29335</v>
+        <v>28881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54188</v>
+        <v>54725</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05473950816179322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03973613374392404</v>
+        <v>0.039121860043906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0734008553315441</v>
+        <v>0.07412815422512632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -5176,19 +5176,19 @@
         <v>81994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64659</v>
+        <v>66399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99513</v>
+        <v>102474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06033650590899139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04757986569169156</v>
+        <v>0.04886066759071661</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07322758491175815</v>
+        <v>0.07540701160969258</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>579123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>564578</v>
+        <v>566535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>590333</v>
+        <v>590328</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9330066363774685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.909573561696879</v>
+        <v>0.9127274287658638</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9510672190300677</v>
+        <v>0.9510584705963415</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>662</v>
@@ -5226,19 +5226,19 @@
         <v>697833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>684056</v>
+        <v>683519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708909</v>
+        <v>709363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9452604918382068</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9265991446684559</v>
+        <v>0.9258718457748737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9602638662560762</v>
+        <v>0.9608781399560941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1218</v>
@@ -5247,19 +5247,19 @@
         <v>1276956</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1259437</v>
+        <v>1256476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1294291</v>
+        <v>1292551</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9396634940910086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9267724150882414</v>
+        <v>0.9245929883903067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9524201343083082</v>
+        <v>0.9511393324092832</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>29596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20084</v>
+        <v>19838</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42085</v>
+        <v>41493</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1030684608040681</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06994327064165476</v>
+        <v>0.06908619876339796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1465639965392152</v>
+        <v>0.1445026452218136</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -5372,19 +5372,19 @@
         <v>60435</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44960</v>
+        <v>45411</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76965</v>
+        <v>78389</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05585377377521284</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04155139988979379</v>
+        <v>0.0419684449318875</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07113085587212876</v>
+        <v>0.0724469900284716</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -5393,19 +5393,19 @@
         <v>90031</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71647</v>
+        <v>70944</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111456</v>
+        <v>109670</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06575573501596962</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0523284838572327</v>
+        <v>0.05181521175385514</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08140389898526124</v>
+        <v>0.08009964944016573</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>257549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245060</v>
+        <v>245652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267061</v>
+        <v>267307</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8969315391959319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8534360034607847</v>
+        <v>0.8554973547781863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9300567293583452</v>
+        <v>0.9309138012366019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>940</v>
@@ -5443,19 +5443,19 @@
         <v>1021590</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1005060</v>
+        <v>1003636</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1037065</v>
+        <v>1036614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9441462262247872</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9288691441278711</v>
+        <v>0.9275530099715282</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9584486001102062</v>
+        <v>0.9580315550681124</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1185</v>
@@ -5464,19 +5464,19 @@
         <v>1279139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1257714</v>
+        <v>1259500</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1297523</v>
+        <v>1298226</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9342442649840303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9185961010147391</v>
+        <v>0.9199003505598359</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9476715161427676</v>
+        <v>0.9481847882461449</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>199634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>174456</v>
+        <v>172786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>229926</v>
+        <v>229467</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05896342379257663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05152705203192301</v>
+        <v>0.05103367516312651</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06791039905176012</v>
+        <v>0.06777483332688035</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -5589,19 +5589,19 @@
         <v>191453</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>162809</v>
+        <v>165592</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>219034</v>
+        <v>222901</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05421160032972776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04610065629205914</v>
+        <v>0.04688872295034282</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06202137948986044</v>
+        <v>0.06311628672463025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>365</v>
@@ -5610,19 +5610,19 @@
         <v>391087</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>354261</v>
+        <v>356374</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>430173</v>
+        <v>432717</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05653740838939064</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05121359871302329</v>
+        <v>0.05151909843074427</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06218783501045237</v>
+        <v>0.06255558550859813</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3186088</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3155796</v>
+        <v>3156255</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3211266</v>
+        <v>3212936</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9410365762074234</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9320896009482403</v>
+        <v>0.9322251666731201</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9484729479680771</v>
+        <v>0.9489663248368736</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3154</v>
@@ -5660,19 +5660,19 @@
         <v>3340143</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3312562</v>
+        <v>3308695</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3368787</v>
+        <v>3366004</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9457883996702723</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9379786205101396</v>
+        <v>0.9368837132753697</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9538993437079408</v>
+        <v>0.9531112770496571</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6185</v>
@@ -5681,19 +5681,19 @@
         <v>6526231</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6487145</v>
+        <v>6484601</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6563057</v>
+        <v>6560944</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9434625916106094</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9378121649895476</v>
+        <v>0.9374444144914017</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9487864012869767</v>
+        <v>0.9484809015692557</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>25867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16678</v>
+        <v>16253</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38253</v>
+        <v>37759</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04697836555018194</v>
+        <v>0.04697836555018195</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03028927733999482</v>
+        <v>0.02951771863958956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06947223557918138</v>
+        <v>0.06857639785147329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -6048,19 +6048,19 @@
         <v>26188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19609</v>
+        <v>19531</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34454</v>
+        <v>35032</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05361972075916541</v>
+        <v>0.0536197207591654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04014958187292775</v>
+        <v>0.03998890904361356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07054403472975075</v>
+        <v>0.0717265335114948</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -6069,19 +6069,19 @@
         <v>52056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39773</v>
+        <v>39188</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65182</v>
+        <v>66121</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05010023193319176</v>
+        <v>0.05010023193319175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0382785294601751</v>
+        <v>0.03771626665045535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06273356939971032</v>
+        <v>0.06363723398440599</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>524751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>512365</v>
+        <v>512859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>533940</v>
+        <v>534365</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.953021634449818</v>
+        <v>0.9530216344498182</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9305277644208192</v>
+        <v>0.9314236021485269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9697107226600054</v>
+        <v>0.9704822813604105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>644</v>
@@ -6119,19 +6119,19 @@
         <v>462223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>453957</v>
+        <v>453379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468802</v>
+        <v>468880</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9463802792408347</v>
+        <v>0.9463802792408346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9294559652702498</v>
+        <v>0.9282734664885048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9598504181270728</v>
+        <v>0.9600110909563865</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1173</v>
@@ -6140,19 +6140,19 @@
         <v>986973</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>973847</v>
+        <v>972908</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>999256</v>
+        <v>999841</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9498997680668084</v>
+        <v>0.9498997680668083</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9372664306002901</v>
+        <v>0.9363627660155944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9617214705398255</v>
+        <v>0.9622837333495445</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>25732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16239</v>
+        <v>16773</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38219</v>
+        <v>37505</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05325134079872421</v>
+        <v>0.0532513407987242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0336072205651235</v>
+        <v>0.03471215338233995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07909357563481254</v>
+        <v>0.07761510189904638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -6265,19 +6265,19 @@
         <v>24983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17708</v>
+        <v>18671</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33941</v>
+        <v>34026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05904109129314154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04184940241385046</v>
+        <v>0.04412552932531472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08021258117174161</v>
+        <v>0.08041340764883488</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -6286,19 +6286,19 @@
         <v>50715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38407</v>
+        <v>38908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66753</v>
+        <v>64801</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05595435622429631</v>
+        <v>0.0559543562242963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04237477708190648</v>
+        <v>0.04292744790169178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07365012145976518</v>
+        <v>0.07149587795233268</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>457480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>444993</v>
+        <v>445707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>466973</v>
+        <v>466439</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9467486592012757</v>
+        <v>0.9467486592012758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9209064243651875</v>
+        <v>0.9223848981009537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9663927794348767</v>
+        <v>0.9652878466176602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>553</v>
@@ -6336,19 +6336,19 @@
         <v>398160</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389202</v>
+        <v>389117</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405435</v>
+        <v>404472</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9409589087068585</v>
+        <v>0.9409589087068583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9197874188282583</v>
+        <v>0.9195865923511654</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9581505975861496</v>
+        <v>0.9558744706746852</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1009</v>
@@ -6357,19 +6357,19 @@
         <v>855640</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>839602</v>
+        <v>841554</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>867948</v>
+        <v>867447</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9440456437757037</v>
+        <v>0.9440456437757038</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9263498785402348</v>
+        <v>0.9285041220476673</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9576252229180935</v>
+        <v>0.9570725520983081</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>37271</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25781</v>
+        <v>26233</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50419</v>
+        <v>49343</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07902916527412707</v>
+        <v>0.07902916527412705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05466485739010904</v>
+        <v>0.05562404230577289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1069083593894294</v>
+        <v>0.104625840132152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6482,19 +6482,19 @@
         <v>12688</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8046</v>
+        <v>8033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18910</v>
+        <v>19189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06767245178153783</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0429125764727458</v>
+        <v>0.0428418684818853</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1008534998288095</v>
+        <v>0.1023454355101221</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -6503,19 +6503,19 @@
         <v>49959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38531</v>
+        <v>38395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64671</v>
+        <v>65410</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07579851154938973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05845870422125662</v>
+        <v>0.05825216382050017</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09811948097159906</v>
+        <v>0.09923939274933748</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>434341</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>421193</v>
+        <v>422269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>445831</v>
+        <v>445379</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9209708347258729</v>
+        <v>0.9209708347258728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8930916406105706</v>
+        <v>0.895374159867848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9453351426098909</v>
+        <v>0.944375957694227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>267</v>
@@ -6553,19 +6553,19 @@
         <v>174809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168587</v>
+        <v>168308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179451</v>
+        <v>179464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9323275482184622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8991465001711901</v>
+        <v>0.8976545644898779</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9570874235272541</v>
+        <v>0.9571581315181147</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>716</v>
@@ -6574,19 +6574,19 @@
         <v>609150</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594438</v>
+        <v>593699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>620578</v>
+        <v>620714</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9242014884506103</v>
+        <v>0.9242014884506102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9018805190284012</v>
+        <v>0.9007606072506628</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9415412957787435</v>
+        <v>0.9417478361795</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>77780</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62437</v>
+        <v>60377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104572</v>
+        <v>101353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06871976687304071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05516397386665972</v>
+        <v>0.05334428107218469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.092390858318422</v>
+        <v>0.08954731184240487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -6699,19 +6699,19 @@
         <v>55394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43473</v>
+        <v>43713</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69793</v>
+        <v>69689</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06432070838387398</v>
+        <v>0.06432070838387396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05047857436467454</v>
+        <v>0.05075777965019899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08104012151271023</v>
+        <v>0.08091966821730442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -6720,19 +6720,19 @@
         <v>133174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113282</v>
+        <v>111240</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>162226</v>
+        <v>157508</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06681890567284667</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05683834240965498</v>
+        <v>0.05581394934308531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08139550968920221</v>
+        <v>0.0790286423209615</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1054063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1027271</v>
+        <v>1030490</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1069406</v>
+        <v>1071466</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9312802331269592</v>
+        <v>0.9312802331269594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9076091416815777</v>
+        <v>0.9104526881575951</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9448360261333401</v>
+        <v>0.9466557189278154</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1152</v>
@@ -6770,19 +6770,19 @@
         <v>805817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>791418</v>
+        <v>791522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>817738</v>
+        <v>817498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9356792916161261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.91895987848729</v>
+        <v>0.9190803317826947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9495214256353259</v>
+        <v>0.9492422203498007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2196</v>
@@ -6791,19 +6791,19 @@
         <v>1859880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1830828</v>
+        <v>1835546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1879772</v>
+        <v>1881814</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9331810943271532</v>
+        <v>0.9331810943271535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9186044903107976</v>
+        <v>0.9209713576790383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.943161657590345</v>
+        <v>0.9441860506569146</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>40321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28602</v>
+        <v>27737</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60462</v>
+        <v>55127</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07099186900268599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05035945643052624</v>
+        <v>0.04883592933959221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1064533751425678</v>
+        <v>0.0970606814255574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -6916,19 +6916,19 @@
         <v>56960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45535</v>
+        <v>46217</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70989</v>
+        <v>71465</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06855611380240782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05480548336576989</v>
+        <v>0.05562671864077314</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08544114315819745</v>
+        <v>0.0860139724911292</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -6937,19 +6937,19 @@
         <v>97281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79867</v>
+        <v>79417</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119603</v>
+        <v>118919</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06954510923611182</v>
+        <v>0.0695451092361118</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05709651410720094</v>
+        <v>0.05677458142130015</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08550340847990458</v>
+        <v>0.08501400180555106</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>527643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>507502</v>
+        <v>512837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>539362</v>
+        <v>540227</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9290081309973139</v>
+        <v>0.9290081309973138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8935466248574324</v>
+        <v>0.9029393185744422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9496405435694738</v>
+        <v>0.9511640706604079</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1194</v>
@@ -6987,19 +6987,19 @@
         <v>773890</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>759861</v>
+        <v>759385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>785315</v>
+        <v>784633</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9314438861975922</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9145588568418025</v>
+        <v>0.9139860275088708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.94519451663423</v>
+        <v>0.9443732813592267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1701</v>
@@ -7008,19 +7008,19 @@
         <v>1301533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1279211</v>
+        <v>1279895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1318947</v>
+        <v>1319397</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9304548907638883</v>
+        <v>0.9304548907638881</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9144965915200957</v>
+        <v>0.91498599819445</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9429034858927992</v>
+        <v>0.9432254185787001</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>11222</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4064</v>
+        <v>4110</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23741</v>
+        <v>23177</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0473033496540402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01713040142780855</v>
+        <v>0.01732346055309425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1000750895266201</v>
+        <v>0.09769865442961929</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -7133,19 +7133,19 @@
         <v>49198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37995</v>
+        <v>37859</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63404</v>
+        <v>64889</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05827255242952368</v>
+        <v>0.05827255242952369</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04500284769766341</v>
+        <v>0.04484229752000156</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07509869838179832</v>
+        <v>0.07685710298372207</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -7154,19 +7154,19 @@
         <v>60420</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46775</v>
+        <v>46801</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79788</v>
+        <v>79702</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05586646990296423</v>
+        <v>0.05586646990296422</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04324980156883822</v>
+        <v>0.04327376756010914</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07377476002808604</v>
+        <v>0.07369488835221545</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>226006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213487</v>
+        <v>214051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233164</v>
+        <v>233118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9526966503459597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8999249104733796</v>
+        <v>0.9023013455703804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9828695985721914</v>
+        <v>0.9826765394469057</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1083</v>
@@ -7204,19 +7204,19 @@
         <v>795083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>780877</v>
+        <v>779392</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>806286</v>
+        <v>806422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9417274475704762</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9249013016182018</v>
+        <v>0.9231428970162778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9549971523023365</v>
+        <v>0.9551577024799985</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1189</v>
@@ -7225,19 +7225,19 @@
         <v>1021089</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1001721</v>
+        <v>1001807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1034734</v>
+        <v>1034708</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9441335300970359</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9262252399719144</v>
+        <v>0.9263051116477853</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9567501984311618</v>
+        <v>0.9567262324398911</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>218192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>189959</v>
+        <v>187544</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>254895</v>
+        <v>252849</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0633823862660168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05518087565184929</v>
+        <v>0.05447928755327571</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07404409165111547</v>
+        <v>0.07344983103069146</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>351</v>
@@ -7350,19 +7350,19 @@
         <v>225412</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>202690</v>
+        <v>202177</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250957</v>
+        <v>250875</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06200474917778972</v>
+        <v>0.06200474917778973</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05575450280497037</v>
+        <v>0.05561339759092068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06903169031516848</v>
+        <v>0.0690090403211316</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>560</v>
@@ -7371,19 +7371,19 @@
         <v>443604</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>403518</v>
+        <v>404723</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>482771</v>
+        <v>486114</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06267479301295255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05701118426180161</v>
+        <v>0.05718146884197216</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06820856042818033</v>
+        <v>0.06868084731559934</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3224284</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3187581</v>
+        <v>3189627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3252517</v>
+        <v>3254932</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9366176137339833</v>
+        <v>0.9366176137339834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9259559083488845</v>
+        <v>0.9265501689693089</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9448191243481507</v>
+        <v>0.9455207124467248</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4893</v>
@@ -7421,19 +7421,19 @@
         <v>3409981</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3384436</v>
+        <v>3384518</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3432703</v>
+        <v>3433216</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9379952508222102</v>
+        <v>0.9379952508222104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9309683096848312</v>
+        <v>0.9309909596788684</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9442454971950296</v>
+        <v>0.9443866024090791</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7984</v>
@@ -7442,19 +7442,19 @@
         <v>6634265</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6595098</v>
+        <v>6591755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6674351</v>
+        <v>6673146</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9373252069870474</v>
+        <v>0.9373252069870475</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9317914395718198</v>
+        <v>0.9313191526844006</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9429888157381985</v>
+        <v>0.9428185311580277</v>
       </c>
     </row>
     <row r="24">
